--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rdaa1dba366e740ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf6cabff9d82e45a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R33ba28ecce6b4804"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R0f72e7a476134665"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R4cd7920bdeb144ea"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R47dfd22215c94b9d"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf6cabff9d82e45a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9b53865b2ccf4df0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R4cd7920bdeb144ea"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R47dfd22215c94b9d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R569db442782a4dca"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rddef7bc686804561"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9b53865b2ccf4df0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R806874eac9ea4f42"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R569db442782a4dca"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rddef7bc686804561"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R3d4d337fefef4019"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R67876d10395d4b74"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R806874eac9ea4f42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R156d2f59d640490d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R3d4d337fefef4019"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R67876d10395d4b74"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R77dc0e655fbd4b36"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rae68c4d09e984a0f"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R156d2f59d640490d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4ec8914ad93343e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R77dc0e655fbd4b36"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rae68c4d09e984a0f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R431b245b2afa4b9c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4a28590b510140dd"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4ec8914ad93343e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9f62ecf03f264877"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R431b245b2afa4b9c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4a28590b510140dd"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rd0d1b834bf3a4649"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2f48ed761d6b4421"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9f62ecf03f264877"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R85d0984665af44dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rd0d1b834bf3a4649"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2f48ed761d6b4421"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rdc7499dac8bd4a3e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R29bcf5e4c46b4feb"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R85d0984665af44dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R7c9447c21de5421b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rdc7499dac8bd4a3e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R29bcf5e4c46b4feb"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R3eef34b98b3b4892"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rf9a887dec5bc48f0"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R7c9447c21de5421b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4d0f74d8e06c4ab3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R3eef34b98b3b4892"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rf9a887dec5bc48f0"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9d771017aac34f9f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R02e4de06f931438f"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4d0f74d8e06c4ab3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1092c6bf71c34c70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9d771017aac34f9f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R02e4de06f931438f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9f55873810d24b04"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R91221438963942f8"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1092c6bf71c34c70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf0b4a3487a4b4c7a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9f55873810d24b04"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R91221438963942f8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rb42b6c1974a741e7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd62e20a68f9c4e80"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf0b4a3487a4b4c7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra6b8d660ed2f42a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rb42b6c1974a741e7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd62e20a68f9c4e80"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re122b09a6a5943d1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rb7044d103ce1436b"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/035_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra6b8d660ed2f42a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4196ce0c14a8414b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re122b09a6a5943d1"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rb7044d103ce1436b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R1b6629c574bf4164"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R6e847875a0e64c36"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>